--- a/Preditiva/0_Excel_Analise_Dados/Exercicio1.xlsx
+++ b/Preditiva/0_Excel_Analise_Dados/Exercicio1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\1.Estudando_Dados\Preditiva\0_Excel_Analise_Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B56099-9139-45A7-B07C-280E89A1BB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D60AA-61DD-4481-951C-FD333AFD9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatação de células" sheetId="3" r:id="rId1"/>
@@ -36,436 +36,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>v.souza</author>
-  </authors>
-  <commentList>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Um comentário incomoda muita gente... Mais de um comentário incomoda muito maissss...</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
@@ -738,9 +308,9 @@
     <numFmt numFmtId="173" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="174" formatCode="&quot;Meu salário é&quot;\ &quot;R$ &quot;#.#"/>
     <numFmt numFmtId="175" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="177" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -748,13 +318,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -788,7 +351,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +379,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,11 +547,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1006,7 +581,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1040,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1048,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1079,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1103,10 +678,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,14 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1158,7 +725,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1178,13 +745,30 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2629,7 +2213,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A4:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C15" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2656,16 +2240,16 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="70" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="C6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
@@ -2674,7 +2258,7 @@
       <c r="C7" s="8">
         <v>40282</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="57">
         <v>40282</v>
       </c>
     </row>
@@ -2685,7 +2269,7 @@
       <c r="C8" s="9">
         <v>40282</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="58">
         <v>40282</v>
       </c>
     </row>
@@ -2696,7 +2280,7 @@
       <c r="C9" s="10">
         <v>40282</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>40282</v>
       </c>
     </row>
@@ -2707,7 +2291,7 @@
       <c r="C10" s="11">
         <v>40282</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="60">
         <v>40282</v>
       </c>
     </row>
@@ -2718,7 +2302,7 @@
       <c r="C11" s="12">
         <v>40282</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="61">
         <v>40282</v>
       </c>
     </row>
@@ -2729,15 +2313,15 @@
       <c r="C12" s="13">
         <v>40282</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="62">
         <v>40282</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="69"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -2746,7 +2330,7 @@
       <c r="C14" s="42">
         <v>0.60081018518518514</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="63">
         <v>0.60081018518518514</v>
       </c>
     </row>
@@ -2757,7 +2341,7 @@
       <c r="C15" s="43">
         <v>0.60081018518518514</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="64">
         <v>0.60081018518518514</v>
       </c>
     </row>
@@ -2768,15 +2352,15 @@
       <c r="C16" s="44">
         <v>0.60081018518518514</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="65">
         <v>0.60081018518518514</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="69"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2820,7 +2404,7 @@
       <c r="I21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="66" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -2840,7 +2424,7 @@
       <c r="I22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="67" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -2857,7 +2441,7 @@
       <c r="H23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="J23" s="68" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2872,7 +2456,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -2880,12 +2464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Plan1"/>
   <dimension ref="B5:BA34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BD14" sqref="BD14"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3688,19 +3272,19 @@
       <c r="B10" s="19">
         <v>13</v>
       </c>
-      <c r="C10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="C10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3710,18 +3294,18 @@
       <c r="H10" s="20">
         <v>13</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="J10" s="20">
         <v>13</v>
       </c>
-      <c r="K10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="K10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="L10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3731,38 +3315,38 @@
       <c r="N10" s="20">
         <v>13</v>
       </c>
-      <c r="O10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="P10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="Q10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="R10" s="22">
+      <c r="O10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="P10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="R10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="S10" s="20">
         <v>13</v>
       </c>
-      <c r="T10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="U10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="V10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="W10" s="22">
+      <c r="T10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="U10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="V10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="W10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3772,7 +3356,7 @@
       <c r="Y10" s="20">
         <v>13</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3788,30 +3372,30 @@
       <c r="AD10" s="20">
         <v>13</v>
       </c>
-      <c r="AE10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AF10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AG10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AH10" s="22">
+      <c r="AE10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AF10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AG10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AH10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="AI10" s="20">
         <v>13</v>
       </c>
-      <c r="AJ10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AK10" s="22">
+      <c r="AJ10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AK10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3821,49 +3405,49 @@
       <c r="AM10" s="20">
         <v>13</v>
       </c>
-      <c r="AN10" s="22">
+      <c r="AN10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="AO10" s="20">
         <v>13</v>
       </c>
-      <c r="AP10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AQ10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AR10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AS10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AT10" s="22">
+      <c r="AP10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AR10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AS10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AT10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
       <c r="AU10" s="20">
         <v>13</v>
       </c>
-      <c r="AV10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AW10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AX10" s="22">
-        <f>ROW()</f>
-        <v>10</v>
-      </c>
-      <c r="AY10" s="22">
+      <c r="AV10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AW10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AX10" s="71">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="AY10" s="71">
         <f>ROW()</f>
         <v>10</v>
       </c>
@@ -3878,11 +3462,11 @@
       <c r="B11" s="19">
         <v>13</v>
       </c>
-      <c r="C11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -3898,30 +3482,30 @@
       <c r="H11" s="20">
         <v>13</v>
       </c>
-      <c r="I11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="J11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="K11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="L11" s="22">
+      <c r="I11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="J11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="K11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="L11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
       <c r="M11" s="20">
         <v>13</v>
       </c>
-      <c r="N11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="O11" s="22">
+      <c r="N11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="O11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -3931,18 +3515,18 @@
       <c r="Q11" s="20">
         <v>13</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
       <c r="S11" s="20">
         <v>13</v>
       </c>
-      <c r="T11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="U11" s="22">
+      <c r="T11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="U11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -3958,7 +3542,7 @@
       <c r="Y11" s="20">
         <v>13</v>
       </c>
-      <c r="Z11" s="22">
+      <c r="Z11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -3974,11 +3558,11 @@
       <c r="AD11" s="20">
         <v>13</v>
       </c>
-      <c r="AE11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="AF11" s="22">
+      <c r="AE11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="AF11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -3991,22 +3575,22 @@
       <c r="AI11" s="20">
         <v>13</v>
       </c>
-      <c r="AJ11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="AK11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="AL11" s="22">
+      <c r="AJ11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="AK11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="AL11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
       <c r="AM11" s="20">
         <v>13</v>
       </c>
-      <c r="AN11" s="22">
+      <c r="AN11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -4019,7 +3603,7 @@
       <c r="AQ11" s="20">
         <v>13</v>
       </c>
-      <c r="AR11" s="22">
+      <c r="AR11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -4032,11 +3616,11 @@
       <c r="AU11" s="20">
         <v>13</v>
       </c>
-      <c r="AV11" s="22">
-        <f>ROW()</f>
-        <v>11</v>
-      </c>
-      <c r="AW11" s="22">
+      <c r="AV11" s="71">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="AW11" s="71">
         <f>ROW()</f>
         <v>11</v>
       </c>
@@ -4057,19 +3641,19 @@
       <c r="B12" s="19">
         <v>13</v>
       </c>
-      <c r="C12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="D12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="C12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="F12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4082,11 +3666,11 @@
       <c r="I12" s="20">
         <v>13</v>
       </c>
-      <c r="J12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="J12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="K12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4096,11 +3680,11 @@
       <c r="M12" s="20">
         <v>13</v>
       </c>
-      <c r="N12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="O12" s="22">
+      <c r="N12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="O12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4116,19 +3700,19 @@
       <c r="S12" s="20">
         <v>13</v>
       </c>
-      <c r="T12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="U12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="V12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="W12" s="22">
+      <c r="T12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="U12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="V12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="W12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4138,7 +3722,7 @@
       <c r="Y12" s="20">
         <v>13</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4154,41 +3738,41 @@
       <c r="AD12" s="20">
         <v>13</v>
       </c>
-      <c r="AE12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AF12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AG12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AH12" s="22">
+      <c r="AE12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AF12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AG12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AH12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
       <c r="AI12" s="20">
         <v>13</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
       <c r="AK12" s="20">
         <v>13</v>
       </c>
-      <c r="AL12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AM12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AN12" s="22">
+      <c r="AL12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AM12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AN12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4201,7 +3785,7 @@
       <c r="AQ12" s="20">
         <v>13</v>
       </c>
-      <c r="AR12" s="22">
+      <c r="AR12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4214,19 +3798,19 @@
       <c r="AU12" s="20">
         <v>13</v>
       </c>
-      <c r="AV12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AW12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AX12" s="22">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
-      <c r="AY12" s="22">
+      <c r="AV12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AW12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AX12" s="71">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="AY12" s="71">
         <f>ROW()</f>
         <v>12</v>
       </c>
@@ -4241,11 +3825,11 @@
       <c r="B13" s="19">
         <v>13</v>
       </c>
-      <c r="C13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="D13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4261,15 +3845,15 @@
       <c r="H13" s="20">
         <v>13</v>
       </c>
-      <c r="I13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="J13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="I13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="J13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="K13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4279,11 +3863,11 @@
       <c r="M13" s="20">
         <v>13</v>
       </c>
-      <c r="N13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="O13" s="22">
+      <c r="N13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="O13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4293,18 +3877,18 @@
       <c r="Q13" s="20">
         <v>13</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
       <c r="S13" s="20">
         <v>13</v>
       </c>
-      <c r="T13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="U13" s="22">
+      <c r="T13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="U13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4320,7 +3904,7 @@
       <c r="Y13" s="20">
         <v>13</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4336,11 +3920,11 @@
       <c r="AD13" s="20">
         <v>13</v>
       </c>
-      <c r="AE13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="AF13" s="22">
+      <c r="AE13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="AF13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4353,7 +3937,7 @@
       <c r="AI13" s="20">
         <v>13</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AJ13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4363,11 +3947,11 @@
       <c r="AL13" s="20">
         <v>13</v>
       </c>
-      <c r="AM13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="AN13" s="22">
+      <c r="AM13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="AN13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4380,7 +3964,7 @@
       <c r="AQ13" s="20">
         <v>13</v>
       </c>
-      <c r="AR13" s="22">
+      <c r="AR13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4393,11 +3977,11 @@
       <c r="AU13" s="20">
         <v>13</v>
       </c>
-      <c r="AV13" s="22">
-        <f>ROW()</f>
-        <v>13</v>
-      </c>
-      <c r="AW13" s="22">
+      <c r="AV13" s="71">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="AW13" s="71">
         <f>ROW()</f>
         <v>13</v>
       </c>
@@ -4418,19 +4002,19 @@
       <c r="B14" s="19">
         <v>13</v>
       </c>
-      <c r="C14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="D14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="E14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="C14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="D14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="E14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="F14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4440,18 +4024,18 @@
       <c r="H14" s="20">
         <v>13</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
       <c r="J14" s="20">
         <v>13</v>
       </c>
-      <c r="K14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="L14" s="22">
+      <c r="K14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="L14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4461,38 +4045,38 @@
       <c r="N14" s="20">
         <v>13</v>
       </c>
-      <c r="O14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="P14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="Q14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="R14" s="22">
+      <c r="O14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="P14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="Q14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="R14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
       <c r="S14" s="20">
         <v>13</v>
       </c>
-      <c r="T14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="U14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="V14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="W14" s="22">
+      <c r="T14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="U14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="V14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="W14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4502,45 +4086,45 @@
       <c r="Y14" s="20">
         <v>13</v>
       </c>
-      <c r="Z14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AA14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AB14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AC14" s="22">
+      <c r="Z14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AA14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AB14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AC14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
       <c r="AD14" s="20">
         <v>13</v>
       </c>
-      <c r="AE14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AF14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AG14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AH14" s="22">
+      <c r="AE14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AF14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AG14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AH14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
       <c r="AI14" s="20">
         <v>13</v>
       </c>
-      <c r="AJ14" s="22">
+      <c r="AJ14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4550,11 +4134,11 @@
       <c r="AL14" s="20">
         <v>13</v>
       </c>
-      <c r="AM14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AN14" s="22">
+      <c r="AM14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AN14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4567,7 +4151,7 @@
       <c r="AQ14" s="20">
         <v>13</v>
       </c>
-      <c r="AR14" s="22">
+      <c r="AR14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4580,19 +4164,19 @@
       <c r="AU14" s="20">
         <v>13</v>
       </c>
-      <c r="AV14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AW14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AX14" s="22">
-        <f>ROW()</f>
-        <v>14</v>
-      </c>
-      <c r="AY14" s="22">
+      <c r="AV14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AW14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AX14" s="71">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="AY14" s="71">
         <f>ROW()</f>
         <v>14</v>
       </c>
@@ -4958,7 +4542,7 @@
       <c r="K22" s="20">
         <v>11</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="72">
         <v>11</v>
       </c>
       <c r="M22" s="20">
@@ -5021,7 +4605,7 @@
       <c r="AF22" s="20">
         <v>11</v>
       </c>
-      <c r="AG22" s="20">
+      <c r="AG22" s="72">
         <v>11</v>
       </c>
       <c r="AH22" s="20">
@@ -5116,7 +4700,7 @@
       <c r="K23" s="20">
         <v>12</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="72">
         <v>12</v>
       </c>
       <c r="M23" s="20">
@@ -5256,7 +4840,7 @@
       <c r="E24" s="20">
         <v>13</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="72">
         <v>13</v>
       </c>
       <c r="G24" s="20">
@@ -5298,7 +4882,7 @@
       <c r="S24" s="20">
         <v>13</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="72">
         <v>13</v>
       </c>
       <c r="U24" s="20">
@@ -5364,7 +4948,7 @@
       <c r="AO24" s="20">
         <v>13</v>
       </c>
-      <c r="AP24" s="20">
+      <c r="AP24" s="72">
         <v>13</v>
       </c>
       <c r="AQ24" s="20">
@@ -5438,7 +5022,7 @@
       <c r="M25" s="20">
         <v>14</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="72">
         <v>13</v>
       </c>
       <c r="O25" s="20">
@@ -5471,7 +5055,7 @@
       <c r="X25" s="20">
         <v>14</v>
       </c>
-      <c r="Y25" s="20">
+      <c r="Y25" s="72">
         <v>13</v>
       </c>
       <c r="Z25" s="20">
@@ -5510,7 +5094,7 @@
       <c r="AK25" s="20">
         <v>14</v>
       </c>
-      <c r="AL25" s="20">
+      <c r="AL25" s="72">
         <v>13</v>
       </c>
       <c r="AM25" s="20">
@@ -5590,10 +5174,10 @@
       <c r="K26" s="22">
         <v>10</v>
       </c>
-      <c r="L26" s="22">
-        <v>10</v>
-      </c>
-      <c r="M26" s="20">
+      <c r="L26" s="73">
+        <v>10</v>
+      </c>
+      <c r="M26" s="72">
         <v>13</v>
       </c>
       <c r="N26" s="20">
@@ -5698,7 +5282,7 @@
       <c r="AU26" s="20">
         <v>13</v>
       </c>
-      <c r="AV26" s="22">
+      <c r="AV26" s="73">
         <v>10</v>
       </c>
       <c r="AW26" s="22">
@@ -5724,7 +5308,7 @@
       <c r="C27" s="22">
         <v>11</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="72">
         <v>13</v>
       </c>
       <c r="E27" s="20">
@@ -5766,10 +5350,10 @@
       <c r="Q27" s="20">
         <v>13</v>
       </c>
-      <c r="R27" s="22">
-        <v>11</v>
-      </c>
-      <c r="S27" s="20">
+      <c r="R27" s="73">
+        <v>11</v>
+      </c>
+      <c r="S27" s="72">
         <v>13</v>
       </c>
       <c r="T27" s="22">
@@ -5894,7 +5478,7 @@
       <c r="G28" s="20">
         <v>13</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="72">
         <v>13</v>
       </c>
       <c r="I28" s="20">
@@ -5957,7 +5541,7 @@
       <c r="AB28" s="20">
         <v>13</v>
       </c>
-      <c r="AC28" s="20">
+      <c r="AC28" s="72">
         <v>13</v>
       </c>
       <c r="AD28" s="20">
@@ -5984,7 +5568,7 @@
       <c r="AK28" s="20">
         <v>13</v>
       </c>
-      <c r="AL28" s="22">
+      <c r="AL28" s="73">
         <v>12</v>
       </c>
       <c r="AM28" s="22">
@@ -6026,7 +5610,7 @@
       <c r="AY28" s="22">
         <v>12</v>
       </c>
-      <c r="AZ28" s="20">
+      <c r="AZ28" s="72">
         <v>13</v>
       </c>
       <c r="BA28" s="21">
@@ -6070,7 +5654,7 @@
       <c r="M29" s="20">
         <v>13</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="73">
         <v>13</v>
       </c>
       <c r="O29" s="22">
@@ -6088,7 +5672,7 @@
       <c r="S29" s="20">
         <v>13</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="73">
         <v>13</v>
       </c>
       <c r="U29" s="22">
@@ -6100,7 +5684,7 @@
       <c r="W29" s="20">
         <v>13</v>
       </c>
-      <c r="X29" s="20">
+      <c r="X29" s="72">
         <v>13</v>
       </c>
       <c r="Y29" s="20">
@@ -6154,7 +5738,7 @@
       <c r="AO29" s="20">
         <v>13</v>
       </c>
-      <c r="AP29" s="20">
+      <c r="AP29" s="72">
         <v>13</v>
       </c>
       <c r="AQ29" s="20">
@@ -6234,7 +5818,7 @@
       <c r="O30" s="22">
         <v>14</v>
       </c>
-      <c r="P30" s="22">
+      <c r="P30" s="73">
         <v>14</v>
       </c>
       <c r="Q30" s="22">
@@ -6446,7 +6030,7 @@
       <c r="AG31" s="20">
         <v>13</v>
       </c>
-      <c r="AH31" s="20">
+      <c r="AH31" s="72">
         <v>13</v>
       </c>
       <c r="AI31" s="20">
@@ -6592,7 +6176,7 @@
       <c r="AC32" s="20">
         <v>13</v>
       </c>
-      <c r="AD32" s="20">
+      <c r="AD32" s="72">
         <v>13</v>
       </c>
       <c r="AE32" s="20">
@@ -6643,7 +6227,7 @@
       <c r="AT32" s="20">
         <v>10</v>
       </c>
-      <c r="AU32" s="20">
+      <c r="AU32" s="72">
         <v>10</v>
       </c>
       <c r="AV32" s="20">
@@ -6675,10 +6259,10 @@
       <c r="D33" s="20">
         <v>11</v>
       </c>
-      <c r="E33" s="20">
-        <v>11</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="E33" s="72">
+        <v>11</v>
+      </c>
+      <c r="F33" s="72">
         <v>13</v>
       </c>
       <c r="G33" s="20">
@@ -6780,7 +6364,7 @@
       <c r="AM33" s="20">
         <v>11</v>
       </c>
-      <c r="AN33" s="20">
+      <c r="AN33" s="72">
         <v>13</v>
       </c>
       <c r="AO33" s="20">
@@ -6983,12 +6567,11 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6996,7 +6579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7103,7 +6686,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -7258,7 +6841,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -7597,7 +7180,7 @@
       <c r="C45" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
